--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3272.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3272.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.086620558223183</v>
+        <v>1.715624570846558</v>
       </c>
       <c r="B1">
-        <v>1.630992346151548</v>
+        <v>3.756839752197266</v>
       </c>
       <c r="C1">
-        <v>3.520215616898776</v>
+        <v>2.080960750579834</v>
       </c>
       <c r="D1">
-        <v>4.472110771158263</v>
+        <v>1.454201817512512</v>
       </c>
       <c r="E1">
-        <v>1.29633065145187</v>
+        <v>1.241882562637329</v>
       </c>
     </row>
   </sheetData>
